--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/系统开放配置_system.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/系统开放配置_system.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">system!$C$2:$H$1904</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -725,7 +725,7 @@
   <dimension ref="A1:H1925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -772,7 +772,7 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1">
       <c r="A4" s="6">
-        <v>1</v>
+        <v>60001</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1">
       <c r="A5" s="6">
-        <v>2</v>
+        <v>60002</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1">
       <c r="A6" s="6">
-        <v>3</v>
+        <v>60003</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1">
       <c r="A7" s="6">
-        <v>4</v>
+        <v>60004</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
